--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,22 @@
   </si>
   <si>
     <t>当待机动作开始时，展示待机动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当重新攻击输入时，重新开始执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动作持续时间必须大于1帧的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,15 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -305,6 +312,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -637,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -649,7 +663,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -674,192 +688,207 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>2</v>
+      <c r="A8" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>38</v>
+      <c r="A9" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
+      <c r="A11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>40</v>
+      <c r="A14" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>24</v>
+      <c r="A16" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
+      <c r="A20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
+      <c r="A21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>5</v>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>6</v>
+      <c r="A24" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>49</v>
+      <c r="A36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>43</v>
+      <c r="A39" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>53</v>
       </c>
     </row>
@@ -875,7 +904,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -916,6 +945,11 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
@@ -941,17 +975,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -966,17 +1000,17 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,14 @@
   </si>
   <si>
     <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并转换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为转换列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +304,15 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -350,6 +367,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -651,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,7 +681,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -688,12 +706,12 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -703,7 +721,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -890,6 +908,16 @@
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -975,17 +1003,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1000,17 +1028,17 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>转换为转换列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -911,13 +915,18 @@
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="6" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,14 @@
   </si>
   <si>
     <t>添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加state transition 单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater中的state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,15 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -340,6 +339,14 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -673,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -685,7 +692,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -710,12 +717,12 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -725,7 +732,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -915,19 +922,32 @@
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>64</v>
       </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,17 +1032,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1037,17 +1057,17 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当攻击动作n执行结束，没有后续动作，输入攻击时，执行攻击动作n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当攻击动作n+1执行结束，没有后续动作，输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,199 +86,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当连招为技能1，技能2，技能1，技能2时，执行顺序为动作1，动作3，动作1，动作3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当连招为技能1，技能2，技能2，技能1时，执行顺序为动作1，动作3，动作4，动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行受击动作时，受击，重新执行受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击时，但霸体时，不触发受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时间在0%-x%之间时，为准备动作，不会造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当血量减少到0时，死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，触发死亡动作，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作中断时，之后不会执行打击动作和回收动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作中断后再次执行时，重新从准备动作开始执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御输入取消时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时间在n%-100%之间时，为回收动作，不会造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击，受击位置在防御范围内时，执行防御，否则，执行受击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击位置在（0，1），防御范围为90度（默认正方向为局部y轴）时，在防御范围内，当受击位置在（0，-1）时，不在防御范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入移动，输入攻击时，执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有目标，没有输入时，执行待机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有目标，输入移动时，执行移动动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有目标，输入移动时，执行战斗移动动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有目标，没有输入时，执行战斗待机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行攻击动作时：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当打击目标时，目标受击，当攻击力为10，目标防御力为1时，目标血量减少9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入移动时，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当为击倒打击动作时，击倒目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当被击倒时，执行倒地动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行倒地动作时，任何输入，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行破防动作时，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，体力减少到0时，血量不变，执行破防动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当倒地动作结束时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入攻击时，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行时，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作开始时，展示移动动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作执行时，移动角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当待机动作开始时，展示待机动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当重新攻击输入时，重新开始执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动作持续时间必须大于1帧的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并转换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为转换列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加state transition 单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater中的state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Transition中Charater依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>当执行基本动作，受击时，触发受击动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当连招为技能1，技能2，技能1，技能2时，执行顺序为动作1，动作3，动作1，动作3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当连招为技能1，技能2，技能2，技能1时，执行顺序为动作1，动作3，动作4，动作1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行受击动作时，受击，重新执行受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击时，但霸体时，不触发受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当时间在0%-x%之间时，为准备动作，不会造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当血量减少到0时，死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，触发死亡动作，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作中断时，之后不会执行打击动作和回收动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作中断后再次执行时，重新从准备动作开始执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御输入取消时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当时间在n%-100%之间时，为回收动作，不会造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击，受击位置在防御范围内时，执行防御，否则，执行受击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击位置在（0，1），防御范围为90度（默认正方向为局部y轴）时，在防御范围内，当受击位置在（0，-1）时，不在防御范围内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入移动，输入攻击时，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没有目标，没有输入时，执行待机动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没有目标，输入移动时，执行移动动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有目标，输入移动时，执行战斗移动动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有目标，没有输入时，执行战斗待机动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行攻击动作时：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当打击目标时，目标受击，当攻击力为10，目标防御力为1时，目标血量减少9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入移动时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当为击倒打击动作时，击倒目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当被击倒时，执行倒地动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行倒地动作时，任何输入，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行破防动作时，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，体力减少到0时，血量不变，执行破防动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当倒地动作结束时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行连招时，中断输入，重置执行顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入攻击时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作开始时，展示移动动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作执行时，移动角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当待机动作开始时，展示待机动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当重新攻击输入时，重新开始执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击动作持续时间必须大于1帧的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并转换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换为转换列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加state transition 单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater中的state</t>
+    <t>当攻击动作n执行结束，回到基本状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：SkillState SwitchTo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,6 +323,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -339,14 +352,6 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -680,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,262 +697,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>18</v>
+      <c r="A1" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>58</v>
+      <c r="A7" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>59</v>
+      <c r="A9" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>2</v>
+      <c r="A11" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>39</v>
+      <c r="A16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>40</v>
+      <c r="A17" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>50</v>
+      <c r="A25" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -958,10 +970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,46 +983,41 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
+      <c r="A6" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>54</v>
+      <c r="A7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1032,43 +1039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>34</v>
+      <c r="A1" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
+      <c r="A2" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
+      <c r="A6" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
+      <c r="A7" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>56</v>
+      <c r="A8" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,14 @@
   </si>
   <si>
     <t>重构：SkillState SwitchTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater build部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行动作n时，播放动作n动画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,15 +328,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,7 +382,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -685,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,7 +695,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -722,12 +720,12 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -737,228 +735,238 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>2</v>
+      <c r="A12" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1039,17 +1047,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1064,17 +1072,17 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,10 @@
   </si>
   <si>
     <t>当执行动作n时，播放动作n动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入为n个时，状体为x个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +357,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,6 +403,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -683,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -960,14 +983,25 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="7" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,211 +94,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当受击时，但霸体时，不触发受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时间在0%-x%之间时，为准备动作，不会造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当血量减少到0时，死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，触发死亡动作，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作中断时，之后不会执行打击动作和回收动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作中断后再次执行时，重新从准备动作开始执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御输入取消时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时间在n%-100%之间时，为回收动作，不会造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击，受击位置在防御范围内时，执行防御，否则，执行受击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击位置在（0，1），防御范围为90度（默认正方向为局部y轴）时，在防御范围内，当受击位置在（0，-1）时，不在防御范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入移动，输入攻击时，执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有目标，没有输入时，执行待机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有目标，输入移动时，执行移动动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有目标，输入移动时，执行战斗移动动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有目标，没有输入时，执行战斗待机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行攻击动作时：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当打击目标时，目标受击，当攻击力为10，目标防御力为1时，目标血量减少9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入移动时，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当为击倒打击动作时，击倒目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当被击倒时，执行倒地动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行倒地动作时，任何输入，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行破防动作时，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，体力减少到0时，血量不变，执行破防动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当倒地动作结束时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入攻击时，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行时，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作开始时，展示移动动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作执行时，移动角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当待机动作开始时，展示待机动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当重新攻击输入时，重新开始执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动作持续时间必须大于1帧的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并转换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为转换列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加state transition 单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater中的state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Transition中Charater依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行基本动作，受击时，触发受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行结束，回到基本状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：SkillState SwitchTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater build部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行动作n时，播放动作n动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入为n个时，状体为x个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>当执行受击动作时，受击，重新执行受击动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当受击时，但霸体时，不触发受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当时间在0%-x%之间时，为准备动作，不会造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当血量减少到0时，死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，触发死亡动作，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作中断时，之后不会执行打击动作和回收动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作中断后再次执行时，重新从准备动作开始执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御输入取消时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当时间在n%-100%之间时，为回收动作，不会造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击，受击位置在防御范围内时，执行防御，否则，执行受击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击位置在（0，1），防御范围为90度（默认正方向为局部y轴）时，在防御范围内，当受击位置在（0，-1）时，不在防御范围内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入移动，输入攻击时，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没有目标，没有输入时，执行待机动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没有目标，输入移动时，执行移动动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有目标，输入移动时，执行战斗移动动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有目标，没有输入时，执行战斗待机动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行攻击动作时：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当打击目标时，目标受击，当攻击力为10，目标防御力为1时，目标血量减少9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入移动时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当为击倒打击动作时，击倒目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当被击倒时，执行倒地动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行倒地动作时，任何输入，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行破防动作时，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，体力减少到0时，血量不变，执行破防动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当倒地动作结束时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入攻击时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作开始时，展示移动动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作执行时，移动角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当待机动作开始时，展示待机动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当重新攻击输入时，重新开始执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击动作持续时间必须大于1帧的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并转换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换为转换列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加state transition 单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater中的state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除Transition中Charater依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行基本动作，受击时，触发受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行结束，回到基本状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：SkillState SwitchTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater build部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行动作n时，播放动作n动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入为n个时，状体为x个</t>
+    <t>重构：合并TransitionHitToIdle TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离transitions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：TransitionBasic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,14 +348,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -355,14 +359,6 @@
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,8 +399,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -708,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,62 +713,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>55</v>
+      <c r="A7" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>56</v>
+      <c r="A9" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>66</v>
+      <c r="A11" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
@@ -784,12 +778,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
@@ -799,17 +793,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
@@ -819,17 +813,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
@@ -839,21 +833,21 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -864,7 +858,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
@@ -874,17 +868,17 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
@@ -894,7 +888,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
@@ -909,99 +903,111 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7"/>
+      <c r="A57" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="8"/>
+      <c r="A70" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1050,12 +1056,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -1081,43 +1087,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>31</v>
+      <c r="A3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>重构：TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除TransitionHitToIdle TransitionBasic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -992,7 +996,7 @@
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1004,6 +1008,11 @@
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,15 +306,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重构：分离transitions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：TransitionBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移除TransitionHitToIdle TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：当移动时，移动，当没移动时，待机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:A69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,22 +997,17 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="6"/>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>重构：当移动时，移动，当没移动时，待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：TransitionToNextAction 继承自Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,7 +771,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1004,6 +1008,11 @@
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -322,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +368,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -395,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,6 +411,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -706,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,12 +1020,12 @@
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="6"/>
+      <c r="A69" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,295 +26,303 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当朝向为（1，0），攻击范围为（1，60度），目标位置为（1，0）（1.5，0）（0，1）（0.5，0.5）时，攻击目标为（1，0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行结束，输入攻击时，执行攻击动作n+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n+1执行结束，没有后续动作，输入攻击时，执行攻击动作n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行防御动作时：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入防御时，执行防御动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行破防动作时，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行受击动作的时间为xxx时，受击动作结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击动作结束时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当技能1为动作1，动作2，一直输入攻击时，执行动作1，2循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当连招为技能1，技能1，技能1时，执行动作1，动作2，动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当技能2为动作3，动作4，动作5，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行攻击动作时，受击，执行受击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击时，展示受击效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当破防动作结束时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当连招为技能1，技能2，技能1，技能2时，执行顺序为动作1，动作3，动作1，动作3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当连招为技能1，技能2，技能2，技能1时，执行顺序为动作1，动作3，动作4，动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击时，但霸体时，不触发受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时间在0%-x%之间时，为准备动作，不会造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当血量减少到0时，死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作中断时，之后不会执行打击动作和回收动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作中断后再次执行时，重新从准备动作开始执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御输入取消时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时间在n%-100%之间时，为回收动作，不会造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击，受击位置在防御范围内时，执行防御，否则，执行受击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击位置在（0，1），防御范围为90度（默认正方向为局部y轴）时，在防御范围内，当受击位置在（0，-1）时，不在防御范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入移动，输入攻击时，执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有目标，没有输入时，执行待机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当没有目标，输入移动时，执行移动动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有目标，输入移动时，执行战斗移动动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当有目标，没有输入时，执行战斗待机动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行攻击动作时：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当打击目标时，目标受击，当攻击力为10，目标防御力为1时，目标血量减少9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入移动时，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当为击倒打击动作时，击倒目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当被击倒时，执行倒地动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行倒地动作时，任何输入，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行破防动作时，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，体力减少到0时，血量不变，执行破防动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当倒地动作结束时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入攻击时，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行时，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作开始时，展示移动动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作执行时，移动角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当待机动作开始时，展示待机动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当重新攻击输入时，重新开始执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动作持续时间必须大于1帧的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并转换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为转换列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加state transition 单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater中的state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Transition中Charater依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行基本动作，受击时，触发受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行结束，回到基本状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：SkillState SwitchTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater build部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行动作n时，播放动作n动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入为n个时，状体为x个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行受击动作时，受击，重新执行受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并TransitionHitToIdle TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除TransitionHitToIdle TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：当移动时，移动，当没移动时，待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：TransitionToNextAction 继承自Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>当执行受击动作时，任何输入，无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当朝向为（1，0），攻击范围为（1，60度），目标位置为（1，0）（1.5，0）（0，1）（0.5，0.5）时，攻击目标为（1，0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行结束，输入攻击时，执行攻击动作n+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n+1执行结束，没有后续动作，输入攻击时，执行攻击动作n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行防御动作时：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入防御时，执行防御动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行破防动作时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行受击动作的时间为xxx时，受击动作结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击动作结束时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当技能1为动作1，动作2，一直输入攻击时，执行动作1，2循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当连招为技能1，技能1，技能1时，执行动作1，动作2，动作1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当技能2为动作3，动作4，动作5，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行攻击动作时，受击，执行受击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击时，展示受击效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当破防动作结束时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当连招为技能1，技能2，技能1，技能2时，执行顺序为动作1，动作3，动作1，动作3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当连招为技能1，技能2，技能2，技能1时，执行顺序为动作1，动作3，动作4，动作1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击时，但霸体时，不触发受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当时间在0%-x%之间时，为准备动作，不会造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当血量减少到0时，死亡</t>
+    <t>重构：尝试合并HitState SkillActionState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离SkillActionState中打击相关部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当死亡时，触发死亡动作，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作中断时，之后不会执行打击动作和回收动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作中断后再次执行时，重新从准备动作开始执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御输入取消时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当时间在n%-100%之间时，为回收动作，不会造成伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击，受击位置在防御范围内时，执行防御，否则，执行受击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受击位置在（0，1），防御范围为90度（默认正方向为局部y轴）时，在防御范围内，当受击位置在（0，-1）时，不在防御范围内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入移动，输入攻击时，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没有目标，没有输入时，执行待机动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当没有目标，输入移动时，执行移动动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有目标，输入移动时，执行战斗移动动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当有目标，没有输入时，执行战斗待机动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行攻击动作时：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当打击目标时，目标受击，当攻击力为10，目标防御力为1时，目标血量减少9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入移动时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当为击倒打击动作时，击倒目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当被击倒时，执行倒地动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行倒地动作时，任何输入，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行破防动作时，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，体力减少到0时，血量不变，执行破防动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当倒地动作结束时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入攻击时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作开始时，展示移动动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作执行时，移动角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当待机动作开始时，展示待机动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当重新攻击输入时，重新开始执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击动作持续时间必须大于1帧的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并转换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换为转换列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加state transition 单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater中的state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除Transition中Charater依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行基本动作，受击时，触发受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行结束，回到基本状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：SkillState SwitchTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater build部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行动作n时，播放动作n动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入为n个时，状体为x个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行受击动作时，受击，重新执行受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并TransitionHitToIdle TransitionBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除TransitionHitToIdle TransitionBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：当移动时，移动，当没移动时，待机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：TransitionToNextAction 继承自Finish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,14 +376,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -403,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,7 +411,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -715,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -726,27 +725,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
@@ -756,276 +755,286 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>2</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>20</v>
+      <c r="A15" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>27</v>
+      <c r="A17" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
+      <c r="A18" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>37</v>
+      <c r="A19" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>21</v>
+      <c r="A21" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
-        <v>74</v>
+      <c r="A60" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7"/>
+      <c r="A69" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,37 +1058,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -1106,42 +1115,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当血量减少到0时，死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当死亡时，受击，无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +319,18 @@
   </si>
   <si>
     <t>当死亡时，触发死亡动作，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当血量减少到0时，死亡（待机-&gt;死亡，移动-&gt;死亡，技能-&gt;死亡，受击-&gt;死亡，破防-&gt;死亡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当复活时，触发复活状态，受击，输入无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当复活完成时，到待机状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A69"/>
+  <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -725,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -735,7 +743,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
@@ -755,17 +763,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
@@ -775,22 +783,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
@@ -805,17 +813,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
@@ -825,77 +833,77 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>24</v>
+      <c r="A30" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
@@ -905,136 +913,146 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
+      <c r="A40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>36</v>
+      <c r="A42" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>55</v>
+      <c r="A48" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>56</v>
+      <c r="A49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>66</v>
+      <c r="A56" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4" t="s">
-        <v>70</v>
+      <c r="A58" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>73</v>
+      <c r="A61" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="6"/>
+      <c r="A62" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,12 +1101,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -1115,42 +1133,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当死亡时，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当攻击动作中断时，之后不会执行打击动作和回收动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,159 +174,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当输入攻击时，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行时，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作开始时，展示移动动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作执行时，移动角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当待机动作开始时，展示待机动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当重新攻击输入时，重新开始执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动作持续时间必须大于1帧的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并转换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为转换列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加state transition 单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater中的state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Transition中Charater依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行基本动作，受击时，触发受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行结束，回到基本状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：SkillState SwitchTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater build部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行动作n时，播放动作n动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入为n个时，状体为x个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行受击动作时，受击，重新执行受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并TransitionHitToIdle TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除TransitionHitToIdle TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：当移动时，移动，当没移动时，待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：TransitionToNextAction 继承自Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行受击动作时，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：尝试合并HitState SkillActionState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离SkillActionState中打击相关部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当复活时，触发复活状态，受击，输入无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当复活完成时，到待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，触发死亡动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，生命值大于0，触发复活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并State.Start中的动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：尝试合并Add TransitionToDead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>当倒地动作结束时，执行基本动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当输入攻击时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作开始时，展示移动动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作执行时，移动角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当待机动作开始时，展示待机动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当重新攻击输入时，重新开始执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击动作持续时间必须大于1帧的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并转换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换为转换列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加state transition 单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater中的state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除Transition中Charater依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行基本动作，受击时，触发受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行结束，回到基本状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：SkillState SwitchTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater build部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行动作n时，播放动作n动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入为n个时，状体为x个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行受击动作时，受击，重新执行受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并TransitionHitToIdle TransitionBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除TransitionHitToIdle TransitionBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：当移动时，移动，当没移动时，待机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：TransitionToNextAction 继承自Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行受击动作时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：尝试合并HitState SkillActionState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离SkillActionState中打击相关部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，触发死亡动作，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当血量减少到0时，死亡（待机-&gt;死亡，移动-&gt;死亡，技能-&gt;死亡，受击-&gt;死亡，破防-&gt;死亡）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当复活时，触发复活状态，受击，输入无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当复活完成时，到待机状态</t>
+    <r>
+      <t>当血量减少到0时，死亡（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待机-&gt;死亡，移动-&gt;死亡，技能-&gt;死亡</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受击-&gt;死亡，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>破防-&gt;死亡）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +423,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -385,6 +448,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -411,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,6 +491,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,98 +805,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>60</v>
+      <c r="A1" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>66</v>
+      <c r="A3" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>50</v>
+      <c r="A7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>51</v>
+      <c r="A9" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>61</v>
+      <c r="A11" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>71</v>
+      <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
@@ -832,28 +905,28 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
@@ -863,21 +936,21 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -888,7 +961,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
@@ -898,17 +971,17 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
@@ -918,7 +991,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
@@ -933,126 +1006,136 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>62</v>
+      <c r="A56" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4" t="s">
-        <v>63</v>
+      <c r="A57" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6"/>
+      <c r="A71" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1101,12 +1184,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -1132,43 +1215,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>27</v>
+      <c r="A3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>49</v>
+      <c r="A6" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>47</v>
+      <c r="A7" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>48</v>
+      <c r="A8" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,12 +388,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>当死亡时，受击无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,349 +797,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="117.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" s="6" customFormat="1">
       <c r="A13" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="7"/>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,47 +1161,47 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
   </sheetData>
@@ -1209,47 +1218,47 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>46</v>
       </c>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,10 @@
   </si>
   <si>
     <t>当防御时，播放防御成功动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：添加受击位置参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -827,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1017,12 +1021,12 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1194,6 +1198,11 @@
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -421,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,14 +490,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -519,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -527,7 +519,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1201,7 +1192,7 @@
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="4" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,15 +154,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当防御时，体力减少到0时，血量不变，执行破防动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当输入攻击时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，当目标攻击为10时，减少10体力，血量不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,12 +408,48 @@
     <t>重构：添加受击位置参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>重构：合并defhitter到defstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，血量不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，当受到伤害为1时，减少1体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些debuff掉血，是否可以防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受到伤害为10，体力为1时，减少1体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动会不会消耗体力？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，体力减少到0时，执行破防动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +518,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -511,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -519,6 +555,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -820,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A76"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -843,7 +880,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
@@ -863,17 +900,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
@@ -883,17 +920,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
@@ -918,7 +955,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -933,37 +970,37 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -978,12 +1015,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
@@ -998,206 +1035,238 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>36</v>
+      <c r="A39" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>86</v>
+      <c r="A40" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>34</v>
+      <c r="A41" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>5</v>
+      <c r="A42" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>33</v>
+      <c r="A43" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>35</v>
+      <c r="A47" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>30</v>
+      <c r="A49" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>47</v>
+      <c r="A55" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>48</v>
+      <c r="A56" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
-        <v>58</v>
+      <c r="A63" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
-        <v>62</v>
+      <c r="A65" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>65</v>
+      <c r="A68" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
+      <c r="A69" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
-        <v>87</v>
+      <c r="A74" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6"/>
+      <c r="A76" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1246,12 +1315,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -1303,17 +1372,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="战斗" sheetId="1" r:id="rId1"/>
     <sheet name="技能" sheetId="2" r:id="rId2"/>
     <sheet name="控制" sheetId="3" r:id="rId3"/>
+    <sheet name="不死者的冒险" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,39 +410,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当防御时，血量不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，当受到伤害为1时，减少1体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些debuff掉血，是否可以防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受到伤害为10，体力为1时，减少1体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，体力减少到0时，执行破防动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>重构：合并defhitter到defstate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当防御时，血量不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，当受到伤害为1时，减少1体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些debuff掉血，是否可以防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受到伤害为10，体力为1时，减少1体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limited value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动会不会消耗体力？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据同步问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，体力减少到0时，执行破防动作</t>
+    <t>攻击要消耗体力吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动要消耗体力吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不爽：存在各种限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爽：突破限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当所有限制都可以被突破就无聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅HP不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗相关的核心数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些限制被突破后的一段时间内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度：哪些限制可以被突破，什么时候可以突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换方式：主角A被虐时，转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被虐：战斗中多次死亡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间静止锁定生命，战斗爽，解谜不爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩下去的动力：能够理解，能够行动，存在目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主角A-&gt;主角B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角A：战斗相对弱势，解密相对强势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角B：战斗相对强势，解密相对弱势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1060,17 +1129,17 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
@@ -1080,7 +1149,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
@@ -1100,7 +1169,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
@@ -1250,22 +1319,27 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1389,4 +1463,96 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="46.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="战斗" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当执行破防动作时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当执行受击动作的时间为xxx时，受击动作结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当输入移动时，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当为击倒打击动作时，击倒目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,14 +140,6 @@
   </si>
   <si>
     <t>当执行倒地动作时，任何输入，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行破防动作时，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入攻击时，无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,99 +402,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当受到伤害为10，体力为1时，减少1体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，体力减少到0时，执行破防动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并defhitter到defstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击要消耗体力吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动要消耗体力吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不爽：存在各种限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爽：突破限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当所有限制都可以被突破就无聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅HP不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗相关的核心数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些限制被突破后的一段时间内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度：哪些限制可以被突破，什么时候可以突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换方式：主角A被虐时，转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被虐：战斗中多次死亡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间静止锁定生命，战斗爽，解谜不爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩下去的动力：能够理解，能够行动，存在目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主角A-&gt;主角B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角A：战斗相对弱势，解密相对强势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角B：战斗相对强势，解密相对弱势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职人分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行破防动作时，受击，无效？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>某些debuff掉血，是否可以防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受到伤害为10，体力为1时，减少1体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limited value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据同步问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，体力减少到0时，执行破防动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并defhitter到defstate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击要消耗体力吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动要消耗体力吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不爽：存在各种限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爽：突破限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当所有限制都可以被突破就无聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅HP不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗相关的核心数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些限制被突破后的一段时间内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度：哪些限制可以被突破，什么时候可以突破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换方式：主角A被虐时，转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被虐：战斗中多次死亡？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间静止锁定生命，战斗爽，解谜不爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩下去的动力：能够理解，能够行动，存在目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从主角A-&gt;主角B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角A：战斗相对弱势，解密相对强势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角B：战斗相对强势，解密相对弱势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,15 +564,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -590,6 +573,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -623,7 +614,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -926,420 +917,405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="117.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
       <c r="A63" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
       <c r="A64" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>94</v>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1357,47 +1333,47 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -1414,49 +1390,49 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1467,88 +1443,93 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="2" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -510,7 +510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,14 +571,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
       <name val="宋体"/>
@@ -607,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -615,7 +607,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -919,401 +910,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="117.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="5" customFormat="1">
+    <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -1333,47 +1324,47 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -1390,47 +1381,47 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -1449,13 +1440,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="2" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1471,7 +1462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -1479,7 +1470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1487,47 +1478,47 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>107</v>
       </c>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重构：尝试合并HitState SkillActionState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,10 +296,6 @@
   </si>
   <si>
     <t>当复活时，触发复活状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：整理ReviveState&amp;HitState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,12 +497,16 @@
     <t>某些debuff掉血，是否可以防御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>重构：整理ReviveState&amp;HitState&amp;SkillActionState&amp;DefenseBreakState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +567,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
       <name val="宋体"/>
@@ -599,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,6 +611,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -911,7 +916,7 @@
   <dimension ref="A1:A78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1006,7 +1011,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -1021,37 +1026,37 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -1066,12 +1071,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
@@ -1086,22 +1091,22 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
@@ -1111,32 +1116,32 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
-        <v>108</v>
+      <c r="A44" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
@@ -1146,7 +1151,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
@@ -1171,7 +1176,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
@@ -1250,63 +1255,61 @@
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>71</v>
+      <c r="A71" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1448,79 +1451,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,6 +499,10 @@
   </si>
   <si>
     <t>重构：整理ReviveState&amp;HitState&amp;SkillActionState&amp;DefenseBreakState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWaitngState添加测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1273,42 +1277,47 @@
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
     </row>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,203 +131,340 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当被击倒时，执行倒地动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行倒地动作时，任何输入，受击，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作开始时，展示移动动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当移动动作执行时，移动角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当待机动作开始时，展示待机动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当重新攻击输入时，重新开始执行攻击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击动作持续时间必须大于1帧的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并转换条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为转换列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加state transition 单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater中的state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除Transition中Charater依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行基本动作，受击时，触发受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行结束，回到基本状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：SkillState SwitchTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离charater build部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行动作n时，播放动作n动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当输入为n个时，状体为x个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行受击动作时，受击，重新执行受击动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并TransitionHitToIdle TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除TransitionHitToIdle TransitionBasic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：当移动时，移动，当没移动时，待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：TransitionToNextAction 继承自Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行受击动作时，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：分离SkillActionState中打击相关部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当复活完成时，到待机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，触发死亡动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，生命值大于0，触发复活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并State.Start中的动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：尝试合并Add TransitionToDead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当倒地动作结束时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当死亡时，受击无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当复活完成时，恢复受击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当复活时，触发复活状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作中断后再次执行时，重新从准备动作开始执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击动作n执行时，任何输入，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行防御动作时：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御输入取消时，执行基本动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">当输入防御时，执行防御动作（待机-&gt;防御，移动-&gt;防御）技能-&gt;防御,防御-&gt;技能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：整理 TransitionDefenseToIdle&amp;TransitionToSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放防御姿态动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，播放防御成功动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：添加受击位置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，血量不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，当受到伤害为1时，减少1体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受到伤害为10，体力为1时，减少1体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limited value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当防御时，体力减少到0时，执行破防动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：合并defhitter到defstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击要消耗体力吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动要消耗体力吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不爽：存在各种限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爽：突破限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当所有限制都可以被突破就无聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅HP不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗相关的核心数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些限制被突破后的一段时间内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度：哪些限制可以被突破，什么时候可以突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换方式：主角A被虐时，转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被虐：战斗中多次死亡？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间静止锁定生命，战斗爽，解谜不爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩下去的动力：能够理解，能够行动，存在目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从主角A-&gt;主角B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角A：战斗相对弱势，解密相对强势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角B：战斗相对强势，解密相对弱势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职人分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当执行破防动作时，受击，无效？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些debuff掉血，是否可以防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：整理ReviveState&amp;HitState&amp;SkillActionState&amp;DefenseBreakState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWaitngState添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>当为击倒打击动作时，击倒目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当被击倒时，执行倒地动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行倒地动作时，任何输入，受击，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作开始时，展示移动动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当移动动作执行时，移动角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当待机动作开始时，展示待机动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当取消攻击输入时，当动作执行完成时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当重新攻击输入时，重新开始执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击动作持续时间必须大于1帧的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当槽1为技能1，槽2为技能1，当技能1执行到动作2时，按下槽2时，执行技能1动作1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并转换条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换为转换列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加state transition 单元测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater中的state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除Transition中Charater依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行基本动作，受击时，触发受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行结束，回到基本状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：SkillState SwitchTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离charater build部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行动作n时，播放动作n动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当输入为n个时，状体为x个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行受击动作时，受击，重新执行受击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并TransitionHitToIdle TransitionBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除TransitionHitToIdle TransitionBasic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：当移动时，移动，当没移动时，待机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：TransitionToNextAction 继承自Finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行受击动作时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行打击动作时，根据攻击范围筛选目标，打击目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：分离SkillActionState中打击相关部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当复活完成时，到待机状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，触发死亡动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，生命值大于0，触发复活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并State.Start中的动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：尝试合并Add TransitionToDead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当倒地动作结束时，执行基本动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当死亡时，受击无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当复活完成时，恢复受击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当复活时，触发复活状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作中断后再次执行时，重新从准备动作开始执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作n执行时，任何输入，无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行防御动作时：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御输入取消时，执行基本动作</t>
+    <t>瞬身动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理State测试，Builder测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>当血量减少到0时，死亡（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>待机-&gt;死亡，移动-&gt;死亡，技能-&gt;死亡</t>
+      <t>当血量减少到0时，死亡（待机-&gt;死亡，移动-&gt;死亡，技能-&gt;死亡</t>
     </r>
     <r>
       <rPr>
@@ -350,159 +487,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>受击-&gt;死亡，</t>
+      <t>受击-&gt;死亡，破防-&gt;死亡）</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>破防-&gt;死亡）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">当输入防御时，执行防御动作（待机-&gt;防御，移动-&gt;防御）技能-&gt;防御,防御-&gt;技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：整理 TransitionDefenseToIdle&amp;TransitionToSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放防御姿态动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，播放防御成功动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：添加受击位置参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，血量不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，当受到伤害为1时，减少1体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当受到伤害为10，体力为1时，减少1体力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limited value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据同步问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当防御时，体力减少到0时，执行破防动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：合并defhitter到defstate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击要消耗体力吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动要消耗体力吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不爽：存在各种限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爽：突破限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当所有限制都可以被突破就无聊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅HP不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗相关的核心数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些限制被突破后的一段时间内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度：哪些限制可以被突破，什么时候可以突破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换方式：主角A被虐时，转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被虐：战斗中多次死亡？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间静止锁定生命，战斗爽，解谜不爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩下去的动力：能够理解，能够行动，存在目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从主角A-&gt;主角B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角A：战斗相对弱势，解密相对强势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角B：战斗相对强势，解密相对弱势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职人分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行破防动作时，受击，无效？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些debuff掉血，是否可以防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重构：整理ReviveState&amp;HitState&amp;SkillActionState&amp;DefenseBreakState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWaitngState添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,14 +561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
       <name val="宋体"/>
@@ -607,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -615,7 +597,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -917,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,7 +911,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -940,7 +921,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
@@ -960,17 +941,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
@@ -980,17 +961,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
@@ -1015,7 +996,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -1029,38 +1010,38 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>74</v>
+      <c r="A21" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -1075,12 +1056,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
@@ -1089,28 +1070,28 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
@@ -1120,32 +1101,32 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>106</v>
+      <c r="A44" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
@@ -1155,7 +1136,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
@@ -1165,97 +1146,97 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
@@ -1263,62 +1244,77 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>109</v>
+      <c r="A72" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
-        <v>76</v>
+      <c r="A73" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1368,12 +1364,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -1425,17 +1421,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1460,79 +1456,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -456,10 +456,6 @@
   </si>
   <si>
     <t>瞬身动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理State测试，Builder测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,6 +489,23 @@
   </si>
   <si>
     <t>功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整理State测试，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Builder测试</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,7 +1024,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
@@ -1309,12 +1322,12 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>当打击目标时，目标受击，当攻击力为10，目标防御力为1时，目标血量减少9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当被击倒时，执行倒地动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -492,11 +488,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>当被击倒时，执行倒地动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>整理State测试，</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="0" tint="-0.249977111117893"/>
         <rFont val="宋体"/>
@@ -513,7 +514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +568,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -602,14 +612,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -913,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,7 +935,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -934,7 +945,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
@@ -954,17 +965,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
@@ -974,17 +985,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
@@ -1009,7 +1020,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -1024,37 +1035,37 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -1069,12 +1080,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
@@ -1089,22 +1100,22 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
@@ -1114,32 +1125,32 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
-        <v>104</v>
+      <c r="A44" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
@@ -1149,7 +1160,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
@@ -1159,97 +1170,97 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
@@ -1257,77 +1268,77 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="A81" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1377,12 +1388,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -1434,17 +1445,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1469,79 +1480,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,21 +492,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>整理State测试，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Builder测试</t>
-    </r>
+    <t>分离Tran State</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理State测试，Builder测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,15 +558,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -612,15 +593,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -922,9 +902,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1129,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1332,13 +1312,18 @@
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="6" t="s">
-        <v>112</v>
+      <c r="A81" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,15 +488,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当被击倒时，执行倒地动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分离Tran State</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>整理State测试，Builder测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮空动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：移除TransitionTaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当受击时，被击倒，执行击倒动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当攻击目标位置为xxx，受击目标位置为xxx时，倒地方向为xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1149,181 +1169,206 @@
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>111</v>
+      <c r="A49" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-    </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,6 @@
   </si>
   <si>
     <t>职人分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当执行破防动作时，受击，无效？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>浮空动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跳跃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,6 +509,22 @@
   </si>
   <si>
     <t>当攻击目标位置为xxx，受击目标位置为xxx时，倒地方向为xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构：整理Character.hittable&amp;down相关状态和转换(整理打击倒地)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮空动作（不会到死亡动作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加功能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力自动恢复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,8 +593,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -922,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A89"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1035,7 +1043,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
@@ -1149,141 +1157,141 @@
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>20</v>
+      <c r="A47" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>28</v>
+      <c r="A50" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>118</v>
+      <c r="A51" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>64</v>
+      <c r="A52" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>30</v>
+      <c r="A54" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>48</v>
+      <c r="A62" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
-        <v>50</v>
+      <c r="A63" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>58</v>
+      <c r="A69" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>62</v>
+      <c r="A71" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
@@ -1292,13 +1300,13 @@
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4" t="s">
-        <v>106</v>
+      <c r="A73" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
@@ -1338,37 +1346,47 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,14 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当攻击动作需要的体力为10，当前体力为15时，输入攻击，执行攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当攻击动作需要的体力为10，当前体力为5时，输入攻击，不执行攻击动作，提示体力不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当槽1为技能1，槽2为技能2，当槽1按下，槽2按下时，执行技能2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当输入为n个时，状体为x个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当执行受击动作时，受击，重新执行受击动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,14 +340,6 @@
   </si>
   <si>
     <t>重构：合并defhitter到defstate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击要消耗体力吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动要消耗体力吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,7 +504,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>移动要消耗体力吗 否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击要消耗体力吗 否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破防动作时间长--大硬直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>体力自动恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,7 +939,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -953,7 +949,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
@@ -973,17 +969,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
@@ -993,17 +989,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
@@ -1028,7 +1024,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
@@ -1043,37 +1039,37 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
@@ -1088,12 +1084,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
@@ -1108,22 +1104,22 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
@@ -1133,27 +1129,27 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
@@ -1163,7 +1159,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
@@ -1173,12 +1169,12 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
@@ -1188,205 +1184,203 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>58</v>
+      <c r="A68" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="6" t="s">
-        <v>63</v>
+      <c r="A69" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="6" t="s">
-        <v>119</v>
+      <c r="A90" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1436,12 +1430,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
@@ -1493,17 +1487,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1528,79 +1522,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,14 @@
   </si>
   <si>
     <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附带的技能，主动和被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种技能的信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,6 +1389,16 @@
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,23 +512,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>体力自动恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器附带的技能，主动和被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种技能的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>破防动作时间长--大硬直</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体力自动恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器附带的技能，主动和被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各种技能的信息</t>
+    <t>普通连击-&gt;高级连击-&gt;黄金连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体攻击连击统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击失败判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（武器或装备上）连击伤害加成，奖励加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击的性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1378,27 +1398,52 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="战斗" sheetId="1" r:id="rId1"/>
     <sheet name="技能" sheetId="2" r:id="rId2"/>
     <sheet name="控制" sheetId="3" r:id="rId3"/>
     <sheet name="不死者的冒险" sheetId="4" r:id="rId4"/>
+    <sheet name="单人与多人" sheetId="5" r:id="rId5"/>
+    <sheet name="受击动作" sheetId="6" r:id="rId6"/>
+    <sheet name="音效" sheetId="8" r:id="rId7"/>
+    <sheet name="  rpg" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +553,131 @@
   </si>
   <si>
     <t>攻击的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例1：生命共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例2：队友传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例3：属性的相生相克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效</t>
+  </si>
+  <si>
+    <t>无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效（相生则有回复效果，相克无效果）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击：准备-&gt;打击-&gt;回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备：1.可切受击，不可切换；2.不可切受击，不可切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>打击：不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可切</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受击，不可切换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收：1.可切受击，不可切换；2.可切受击，可条件切换；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击：前，后，上，中，下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利器打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后仰，向后踉跄（有段向后小位移）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低头，下弯，向后踉跄（有段向后小位移）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之间的交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1444,6 +1573,36 @@
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1664,4 +1823,163 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="3" max="3" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="156">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,12 +680,24 @@
     <t>之间的交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>适时打断玩家体验，关闭游戏休息，提升玩家下次体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如：到时间后，英灵回提升，master，你已工作（游玩的包装）xxx时间了，该休息下了，下次见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤休息装置，黑屏，提示游戏关闭中，关闭游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,518 +1101,518 @@
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="117.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
       <c r="A69" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1">
       <c r="A76" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1">
       <c r="A83" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1">
       <c r="A85" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1">
       <c r="A90" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>140</v>
       </c>
@@ -1620,47 +1632,47 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -1677,47 +1689,47 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1736,13 +1748,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="2" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1758,7 +1770,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1774,47 +1786,47 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1833,14 +1845,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>130</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1859,7 +1871,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1870,7 +1882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1896,7 +1908,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.25" customWidth="1"/>
@@ -1904,7 +1916,7 @@
     <col min="4" max="4" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1929,7 +1941,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1946,7 +1958,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,27 +1967,44 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="51.75" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -1970,12 +1970,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="51.75" customWidth="1"/>
+    <col min="1" max="1" width="76.25" customWidth="1"/>
     <col min="2" max="2" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="战斗" sheetId="1" r:id="rId1"/>
@@ -697,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,6 +765,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -786,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -794,6 +803,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1097,522 +1107,522 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="117.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="5" customFormat="1">
+    <row r="13" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>140</v>
       </c>
@@ -1632,47 +1642,47 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="81.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
@@ -1689,47 +1699,47 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1748,13 +1758,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="46.5" customWidth="1"/>
     <col min="2" max="2" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1762,7 +1772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1770,7 +1780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1778,7 +1788,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1786,47 +1796,47 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -1845,14 +1855,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>130</v>
       </c>
@@ -1860,7 +1870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1908,7 +1918,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="36.25" customWidth="1"/>
@@ -1916,7 +1926,7 @@
     <col min="4" max="4" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -1930,7 +1940,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1958,7 +1968,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1969,32 +1979,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="76.25" customWidth="1"/>
     <col min="2" max="2" width="77.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -2002,7 +2012,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>155</v>
       </c>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -1108,7 +1108,7 @@
   <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Assets/RPG/RpG测试列表.xlsx
+++ b/Assets/RPG/RpG测试列表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>当输入攻击时，执行攻击动作n</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -690,6 +690,10 @@
   </si>
   <si>
     <t>召唤休息装置，黑屏，提示游戏关闭中，关闭游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收动作中按键可以进下一段攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A106"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1625,6 +1629,11 @@
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
